--- a/基金代码.xlsx
+++ b/基金代码.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/fsdownload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/PycharmProjects/pythonJijin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42067343-4912-3C43-AA3D-A7534829232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DCA2C0-DADB-644F-AF82-194A51E3323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17420" yWindow="10660" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,58 @@
   </si>
   <si>
     <t>004685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中泰玉衡价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源经济混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天惠成长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富消费行业混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信澳新能源产业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧医疗健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证红利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银趋势混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华商新趋势混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元顺安元启灵活配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银战略转型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时中证证劵公司指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,75 +460,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/基金代码.xlsx
+++ b/基金代码.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/PycharmProjects/pythonJijin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DCA2C0-DADB-644F-AF82-194A51E3323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC09989-84D8-8443-8CE1-10DEFFFACAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="10660" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="6420" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,22 @@
   </si>
   <si>
     <t>博时中证证劵公司指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001917</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004475</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -573,6 +589,31 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金代码.xlsx
+++ b/基金代码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/PycharmProjects/pythonJijin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC09989-84D8-8443-8CE1-10DEFFFACAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49747DEA-A4AE-4D43-AAD3-E306B70EE66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14220" yWindow="6420" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>004475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>017057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015283</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -614,6 +622,16 @@
         <v>28</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基金代码.xlsx
+++ b/基金代码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/PycharmProjects/pythonJijin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49747DEA-A4AE-4D43-AAD3-E306B70EE66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B6133-B5F2-224E-93B1-50C8773A2308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14220" yWindow="6420" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,30 @@
   </si>
   <si>
     <t>015283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安恒生科技ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河创新成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实国政绿色电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证军工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -612,24 +636,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
